--- a/Executions.xlsx
+++ b/Executions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GMS Process_GIT\GMS-Process_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC8D4EA-6035-4CB6-A597-2F5CA41DF838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C713F825-3105-4E77-ADDF-EF5CBFADED8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D886AB-62DD-45DE-86DB-7EE5B80EA8AE}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
